--- a/results/FrequencyTables/26538064_LTR-J.xlsx
+++ b/results/FrequencyTables/26538064_LTR-J.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.0682643427741467</v>
       </c>
       <c r="C2">
-        <v>0.02</v>
+        <v>0.0442992011619463</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.239651416122004</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00798838053740015</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>0.9840232389252</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0217864923747277</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0.758169934640523</v>
       </c>
       <c r="I2">
-        <v>0.32</v>
+        <v>0.37763253449528</v>
       </c>
       <c r="J2">
-        <v>0.98</v>
+        <v>0.989832970225127</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.96</v>
+        <v>0.957879448075526</v>
       </c>
       <c r="M2">
-        <v>0.95</v>
+        <v>0.948438634713144</v>
       </c>
       <c r="N2">
-        <v>0.04</v>
+        <v>0.0319535221496006</v>
       </c>
       <c r="O2">
-        <v>0.02</v>
+        <v>0.0348583877995643</v>
       </c>
       <c r="P2">
-        <v>0.08</v>
+        <v>0.10239651416122</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0312273057371097</v>
       </c>
       <c r="R2">
-        <v>0.01</v>
+        <v>0.0341321713870733</v>
       </c>
       <c r="S2">
-        <v>0.94</v>
+        <v>0.872912127814089</v>
       </c>
       <c r="T2">
-        <v>0.1</v>
+        <v>0.226579520697168</v>
       </c>
       <c r="U2">
-        <v>0.51</v>
+        <v>0.38562091503268</v>
       </c>
       <c r="V2">
-        <v>0.15</v>
+        <v>0.100217864923747</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.00798838053740015</v>
       </c>
       <c r="X2">
-        <v>0.03</v>
+        <v>0.0159767610748003</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.87</v>
+        <v>0.793028322440087</v>
       </c>
       <c r="C3">
-        <v>0.92</v>
+        <v>0.904865649963689</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.0530137981118373</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.037763253449528</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00217864923747277</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00145243282498184</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.00217864923747277</v>
       </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.000726216412490922</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00145243282498184</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00580973129992738</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00798838053740015</v>
       </c>
       <c r="O3">
-        <v>0.03</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="P3">
-        <v>0.01</v>
+        <v>0.0348583877995643</v>
       </c>
       <c r="Q3">
-        <v>0.19</v>
+        <v>0.135802469135802</v>
       </c>
       <c r="R3">
-        <v>0.05</v>
+        <v>0.0341321713870733</v>
       </c>
       <c r="S3">
-        <v>0.05</v>
+        <v>0.0646332607116921</v>
       </c>
       <c r="T3">
-        <v>0.04</v>
+        <v>0.146695715323166</v>
       </c>
       <c r="U3">
-        <v>0.06</v>
+        <v>0.0305010893246187</v>
       </c>
       <c r="V3">
-        <v>0.03</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0137981118373275</v>
       </c>
       <c r="X3">
-        <v>0.04</v>
+        <v>0.0363108206245461</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>0.0203340595497458</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.0137981118373275</v>
       </c>
       <c r="D4">
-        <v>0.34</v>
+        <v>0.498910675381264</v>
       </c>
       <c r="E4">
-        <v>0.96</v>
+        <v>0.950617283950617</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.00944081336238199</v>
       </c>
       <c r="G4">
-        <v>0.99</v>
+        <v>0.973129992737836</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.237472766884532</v>
       </c>
       <c r="I4">
-        <v>0.66</v>
+        <v>0.612926652142338</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.00726216412490922</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.998547567175018</v>
       </c>
       <c r="L4">
-        <v>0.04</v>
+        <v>0.0341321713870733</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0.0152505446623094</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>0.959331880900508</v>
       </c>
       <c r="O4">
-        <v>0.05</v>
+        <v>0.0355846042120552</v>
       </c>
       <c r="P4">
-        <v>0.9</v>
+        <v>0.856935366739288</v>
       </c>
       <c r="Q4">
-        <v>0.06</v>
+        <v>0.037763253449528</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00798838053740015</v>
       </c>
       <c r="S4">
-        <v>0.01</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="T4">
-        <v>0.81</v>
+        <v>0.581699346405229</v>
       </c>
       <c r="U4">
-        <v>0.05</v>
+        <v>0.0617283950617284</v>
       </c>
       <c r="V4">
-        <v>0.81</v>
+        <v>0.848220769789397</v>
       </c>
       <c r="W4">
-        <v>0.06</v>
+        <v>0.046477850399419</v>
       </c>
       <c r="X4">
-        <v>0.93</v>
+        <v>0.916485112563544</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06</v>
+        <v>0.11837327523602</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="D5">
-        <v>0.37</v>
+        <v>0.207697893972404</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00363108206245461</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00435729847494553</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.00363108206245461</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00217864923747277</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0.00871459694989107</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00290486564996369</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00217864923747277</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0101670297748729</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000726216412490922</v>
       </c>
       <c r="O5">
-        <v>0.9</v>
+        <v>0.916485112563544</v>
       </c>
       <c r="P5">
-        <v>0.01</v>
+        <v>0.00580973129992738</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>0.793754538852578</v>
       </c>
       <c r="R5">
-        <v>0.94</v>
+        <v>0.923747276688453</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00217864923747277</v>
       </c>
       <c r="T5">
-        <v>0.05</v>
+        <v>0.0442992011619463</v>
       </c>
       <c r="U5">
-        <v>0.38</v>
+        <v>0.522149600580973</v>
       </c>
       <c r="V5">
-        <v>0.01</v>
+        <v>0.0123456790123457</v>
       </c>
       <c r="W5">
-        <v>0.93</v>
+        <v>0.931735657225853</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0312273057371097</v>
       </c>
     </row>
   </sheetData>
